--- a/SewerRobot/bin/x86/Debug/Gozaresh.xlsx
+++ b/SewerRobot/bin/x86/Debug/Gozaresh.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t>آدرس پروزه :</t>
   </si>
@@ -626,7 +625,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -647,7 +646,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,9 +679,81 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,129 +763,48 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,24 +812,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFC51"/>
+  <dimension ref="A1:XFC86"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -1196,17 +1192,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="46" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1214,15 +1210,15 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1230,15 +1226,15 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="24" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1246,782 +1242,1353 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="50" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="44"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="45"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" thickBot="1">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="51" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="45"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" thickBot="1">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="52" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="45"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1" thickBot="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A13" s="49"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="51"/>
     </row>
     <row r="19" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A20" s="49"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="15"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A24" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
     </row>
     <row r="25" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A27" s="49"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A28" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A29" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="15"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:12" ht="24" customHeight="1" thickBot="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A31" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
     </row>
     <row r="32" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A32" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51"/>
     </row>
     <row r="33" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51"/>
     </row>
     <row r="34" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A34" s="49"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51"/>
     </row>
     <row r="35" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A35" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="13"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51"/>
     </row>
     <row r="36" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A36" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="15"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A38" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
     </row>
     <row r="39" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="51"/>
     </row>
     <row r="40" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="32"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="51"/>
     </row>
     <row r="41" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A41" s="49"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="51"/>
     </row>
     <row r="42" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A42" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="32"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="51"/>
     </row>
     <row r="43" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A43" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="15"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="35"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="54"/>
     </row>
     <row r="44" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A45" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="56"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="61"/>
     </row>
     <row r="46" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A46" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="15"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="59"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="64"/>
     </row>
     <row r="47" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="59"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A48" s="49"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="59"/>
-    </row>
-    <row r="49" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+      <c r="C48" s="69"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="64"/>
+    </row>
+    <row r="49" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="A49" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="15"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="59"/>
-    </row>
-    <row r="50" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A50" s="16"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="64"/>
+    </row>
+    <row r="50" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A50" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B50" s="15"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="59"/>
-    </row>
-    <row r="51" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A51" s="16" t="s">
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="67"/>
+    </row>
+    <row r="51" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+    </row>
+    <row r="52" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="48"/>
+    </row>
+    <row r="53" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A53" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="51"/>
+    </row>
+    <row r="54" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A54" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="51"/>
+    </row>
+    <row r="55" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A55" s="35"/>
+      <c r="B55" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="51"/>
+    </row>
+    <row r="56" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="51"/>
+    </row>
+    <row r="57" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="62"/>
-    </row>
+      <c r="B57" s="15"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="54"/>
+    </row>
+    <row r="58" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+    </row>
+    <row r="59" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="48"/>
+    </row>
+    <row r="60" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="51"/>
+    </row>
+    <row r="61" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A61" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="51"/>
+    </row>
+    <row r="62" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A62" s="35"/>
+      <c r="B62" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="51"/>
+    </row>
+    <row r="63" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A63" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="51"/>
+    </row>
+    <row r="64" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="54"/>
+    </row>
+    <row r="65" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+    </row>
+    <row r="66" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A66" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="61"/>
+    </row>
+    <row r="67" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="64"/>
+    </row>
+    <row r="68" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A68" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="69"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="64"/>
+    </row>
+    <row r="69" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A69" s="35"/>
+      <c r="B69" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="69"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="64"/>
+    </row>
+    <row r="70" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A70" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="64"/>
+    </row>
+    <row r="71" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A71" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="67"/>
+    </row>
+    <row r="72" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+    </row>
+    <row r="73" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="48"/>
+    </row>
+    <row r="74" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="51"/>
+    </row>
+    <row r="75" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A75" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="51"/>
+    </row>
+    <row r="76" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A76" s="35"/>
+      <c r="B76" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="51"/>
+    </row>
+    <row r="77" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A77" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="51"/>
+    </row>
+    <row r="78" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A78" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="54"/>
+    </row>
+    <row r="79" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+    </row>
+    <row r="80" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A80" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="61"/>
+    </row>
+    <row r="81" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A81" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="64"/>
+    </row>
+    <row r="82" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A82" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="69"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="64"/>
+    </row>
+    <row r="83" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A83" s="35"/>
+      <c r="B83" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="69"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="64"/>
+    </row>
+    <row r="84" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A84" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="64"/>
+    </row>
+    <row r="85" spans="1:11" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A85" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="67"/>
+    </row>
+    <row r="86" spans="1:11"/>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="118">
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="G80:K85"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="G73:K78"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="G52:K57"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="G66:K71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="A65:L65"/>
+    <mergeCell ref="G59:K64"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="G31:K36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C31:F31"/>
     <mergeCell ref="A44:L44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:K51"/>
-    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G38:K43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G10:K15"/>
+    <mergeCell ref="G45:K50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C48:F48"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:K43"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K36"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="G24:K29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C35:F35"/>
     <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="G17:K22"/>
@@ -2031,25 +2598,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G24:K29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G10:K15"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
@@ -2063,6 +2611,17 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
